--- a/static/download/2025/RP4_ERT_CAP_Traffic_2025_Jan_Jun.xlsx
+++ b/static/download/2025/RP4_ERT_CAP_Traffic_2025_Jan_Jun.xlsx
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9">
-        <v>45853.0</v>
+        <v>45856.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
